--- a/strompriser_snitt.xlsx
+++ b/strompriser_snitt.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Dag</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pris å betale:</t>
-  </si>
-  <si>
-    <t>Kontroll:</t>
   </si>
 </sst>
 </file>
@@ -640,6 +637,9 @@
       <c r="B2" s="2">
         <v>1213.1400000000001</v>
       </c>
+      <c r="C2">
+        <v>2500</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1">
@@ -648,6 +648,9 @@
       <c r="B3" s="2">
         <v>1890.01</v>
       </c>
+      <c r="C3">
+        <v>2500</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="1">
@@ -656,6 +659,9 @@
       <c r="B4" s="2">
         <v>1514.04</v>
       </c>
+      <c r="C4">
+        <v>2500</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="1">
@@ -664,6 +670,9 @@
       <c r="B5" s="2">
         <v>1368.0699999999999</v>
       </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="1">
@@ -672,6 +681,9 @@
       <c r="B6" s="2">
         <v>1320.8900000000001</v>
       </c>
+      <c r="C6">
+        <v>2500</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="1">
@@ -680,6 +692,9 @@
       <c r="B7" s="2">
         <v>1716.6800000000001</v>
       </c>
+      <c r="C7">
+        <v>2500</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="1">
@@ -688,6 +703,9 @@
       <c r="B8" s="2">
         <v>1762.1400000000001</v>
       </c>
+      <c r="C8">
+        <v>2500</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1">
@@ -696,6 +714,9 @@
       <c r="B9" s="2">
         <v>1329.72</v>
       </c>
+      <c r="C9">
+        <v>2500</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1">
@@ -704,6 +725,9 @@
       <c r="B10" s="2">
         <v>1327.5</v>
       </c>
+      <c r="C10">
+        <v>2500</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="1">
@@ -712,6 +736,9 @@
       <c r="B11" s="2">
         <v>1511.5999999999999</v>
       </c>
+      <c r="C11">
+        <v>2500</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="1">
@@ -720,6 +747,9 @@
       <c r="B12" s="2">
         <v>1622.5999999999999</v>
       </c>
+      <c r="C12">
+        <v>2500</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="1">
@@ -728,6 +758,9 @@
       <c r="B13" s="2">
         <v>1344.4100000000001</v>
       </c>
+      <c r="C13">
+        <v>2500</v>
+      </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="1">
@@ -736,6 +769,9 @@
       <c r="B14" s="2">
         <v>1372.51</v>
       </c>
+      <c r="C14">
+        <v>2500</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="1">
@@ -744,6 +780,9 @@
       <c r="B15" s="2">
         <v>2081.75</v>
       </c>
+      <c r="C15">
+        <v>2500</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="1">
@@ -867,6 +906,12 @@
         <f>((SUM(B$2:B$32))/10)/(COUNTA(B$2:B$32))</f>
         <v>161.29069999999999</v>
       </c>
+      <c r="C33" s="4">
+        <f>((SUM(C$2:C$32))/10)/(COUNTA(C$2:C$32))</f>
+        <v>250</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" ht="14.25">
@@ -877,15 +922,27 @@
         <f>B$33-70</f>
         <v>91.290699999999987</v>
       </c>
+      <c r="C34" s="4">
+        <f>C$33-70</f>
+        <v>180</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="4">
-        <f>B34*55%</f>
+        <f>B$34*55%</f>
         <v>50.209885</v>
       </c>
+      <c r="C35" s="4">
+        <f>C$34*55%</f>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="3" t="s">
@@ -894,24 +951,33 @@
       <c r="B36" s="4">
         <v>89.700000000000003</v>
       </c>
+      <c r="C36" s="4">
+        <v>89.700000000000003</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="4">
-        <f>B36-B35</f>
+        <f>B$36-B$35</f>
         <v>39.490115000000003</v>
       </c>
+      <c r="C37" s="4">
+        <f>C$36-C$35</f>
+        <v>-9.3000000000000114</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="4">
-        <f>89.7-(($B$33-70)*55%)</f>
-        <v>39.490115000000003</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/strompriser_snitt.xlsx
+++ b/strompriser_snitt.xlsx
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -60,6 +60,19 @@
       <name val="Calibri"/>
       <b/>
       <color theme="1"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00B050"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color rgb="FF00B050"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -84,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -95,7 +108,9 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,8 +652,8 @@
       <c r="B2" s="2">
         <v>1213.1400000000001</v>
       </c>
-      <c r="C2">
-        <v>2500</v>
+      <c r="C2" s="6">
+        <v>2330.9000000000001</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -648,9 +663,7 @@
       <c r="B3" s="2">
         <v>1890.01</v>
       </c>
-      <c r="C3">
-        <v>2500</v>
-      </c>
+      <c r="C3"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="1">
@@ -659,9 +672,7 @@
       <c r="B4" s="2">
         <v>1514.04</v>
       </c>
-      <c r="C4">
-        <v>2500</v>
-      </c>
+      <c r="C4"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="1">
@@ -670,9 +681,7 @@
       <c r="B5" s="2">
         <v>1368.0699999999999</v>
       </c>
-      <c r="C5">
-        <v>2500</v>
-      </c>
+      <c r="C5"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="1">
@@ -681,9 +690,7 @@
       <c r="B6" s="2">
         <v>1320.8900000000001</v>
       </c>
-      <c r="C6">
-        <v>2500</v>
-      </c>
+      <c r="C6"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="1">
@@ -692,9 +699,7 @@
       <c r="B7" s="2">
         <v>1716.6800000000001</v>
       </c>
-      <c r="C7">
-        <v>2500</v>
-      </c>
+      <c r="C7"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="1">
@@ -703,9 +708,7 @@
       <c r="B8" s="2">
         <v>1762.1400000000001</v>
       </c>
-      <c r="C8">
-        <v>2500</v>
-      </c>
+      <c r="C8"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1">
@@ -714,9 +717,7 @@
       <c r="B9" s="2">
         <v>1329.72</v>
       </c>
-      <c r="C9">
-        <v>2500</v>
-      </c>
+      <c r="C9"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1">
@@ -725,9 +726,7 @@
       <c r="B10" s="2">
         <v>1327.5</v>
       </c>
-      <c r="C10">
-        <v>2500</v>
-      </c>
+      <c r="C10"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="1">
@@ -736,9 +735,7 @@
       <c r="B11" s="2">
         <v>1511.5999999999999</v>
       </c>
-      <c r="C11">
-        <v>2500</v>
-      </c>
+      <c r="C11"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="1">
@@ -747,9 +744,7 @@
       <c r="B12" s="2">
         <v>1622.5999999999999</v>
       </c>
-      <c r="C12">
-        <v>2500</v>
-      </c>
+      <c r="C12"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="1">
@@ -758,9 +753,7 @@
       <c r="B13" s="2">
         <v>1344.4100000000001</v>
       </c>
-      <c r="C13">
-        <v>2500</v>
-      </c>
+      <c r="C13"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="1">
@@ -769,9 +762,7 @@
       <c r="B14" s="2">
         <v>1372.51</v>
       </c>
-      <c r="C14">
-        <v>2500</v>
-      </c>
+      <c r="C14"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="1">
@@ -780,9 +771,7 @@
       <c r="B15" s="2">
         <v>2081.75</v>
       </c>
-      <c r="C15">
-        <v>2500</v>
-      </c>
+      <c r="C15"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="1">
@@ -908,11 +897,11 @@
       </c>
       <c r="C33" s="4">
         <f>((SUM(C$2:C$32))/10)/(COUNTA(C$2:C$32))</f>
-        <v>250</v>
+        <v>233.09</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="3" t="s">
@@ -924,7 +913,7 @@
       </c>
       <c r="C34" s="4">
         <f>C$33-70</f>
-        <v>180</v>
+        <v>163.09</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -937,9 +926,9 @@
         <f>B$34*55%</f>
         <v>50.209885</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="8">
         <f>C$34*55%</f>
-        <v>99.000000000000014</v>
+        <v>89.699500000000015</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -967,7 +956,7 @@
       </c>
       <c r="C37" s="4">
         <f>C$36-C$35</f>
-        <v>-9.3000000000000114</v>
+        <v>4.9999999998817657e-004</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>

--- a/strompriser_snitt.xlsx
+++ b/strompriser_snitt.xlsx
@@ -6,14 +6,15 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tabell" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Manuell" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Dag</t>
   </si>
@@ -30,16 +31,31 @@
     <t>Mars</t>
   </si>
   <si>
-    <t xml:space="preserve">SUM p.d.d</t>
+    <t xml:space="preserve">Snittpris p.d.d:</t>
   </si>
   <si>
-    <t xml:space="preserve">Minus 70 øre:</t>
+    <t xml:space="preserve">Over 70 øre:</t>
   </si>
   <si>
     <t xml:space="preserve">55% av dette:</t>
   </si>
   <si>
     <t>Fastpris:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reell pris:</t>
+  </si>
+  <si>
+    <t>"Nullpris":</t>
+  </si>
+  <si>
+    <t>https://www.nordpoolgroup.com/Market-data1/Dayahead/Area-Prices/NO/Daily/?view=table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM p.d.d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minus 70 øre:</t>
   </si>
   <si>
     <t xml:space="preserve">Pris å betale:</t>
@@ -49,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -65,6 +81,23 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <sz val="11.000000"/>
+      <u/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <color rgb="FF00B050"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
@@ -77,15 +110,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor theme="2" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,24 +132,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,349 +688,1069 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" style="1" width="14.28125"/>
-    <col min="2" max="2" style="2" width="9.140625"/>
+    <col bestFit="1" min="1" max="1" width="15.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="4">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="4">
+        <v>29</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" s="5"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="4">
+        <v>28</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="4">
+        <v>27</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="4">
+        <v>26</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="4">
+        <v>25</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="4">
+        <v>24</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="4">
+        <v>23</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" s="6"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="4">
+        <v>22</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" s="6"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="4">
+        <v>21</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" s="6"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="4">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>3109.3800000000001</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" s="6"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="4">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>1494.23</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" s="6"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="4">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>1590.0599999999999</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" s="6"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="4">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1819.27</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" s="6"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1561.46</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" s="6"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1308.6800000000001</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" s="6"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>2081.75</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="6"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="4">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1372.51</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="6"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="4">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>1344.4100000000001</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" s="6"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="4">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>1622.5999999999999</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="4">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>1511.5999999999999</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="4">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>1327.5</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="4">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>1329.72</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="4">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>1762.1400000000001</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="4">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1716.6800000000001</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="4">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1320.8900000000001</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="4">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1368.0699999999999</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="4">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1514.04</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1890.01</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B32" s="8">
         <v>1213.1400000000001</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C32" s="9">
         <v>2330.9000000000001</v>
       </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1890.01</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1514.04</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1368.0699999999999</v>
-      </c>
-      <c r="C5"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="1">
+      <c r="D32" s="10">
+        <v>2331.0999999999999</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>1320.8900000000001</v>
-      </c>
-      <c r="C6"/>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1716.6800000000001</v>
-      </c>
-      <c r="C7"/>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1762.1400000000001</v>
-      </c>
-      <c r="C8"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1329.72</v>
-      </c>
-      <c r="C9"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1327.5</v>
-      </c>
-      <c r="C10"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1511.5999999999999</v>
-      </c>
-      <c r="C11"/>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1622.5999999999999</v>
-      </c>
-      <c r="C12"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1344.4100000000001</v>
-      </c>
-      <c r="C13"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1372.51</v>
-      </c>
-      <c r="C14"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2081.75</v>
-      </c>
-      <c r="C15"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1308.6800000000001</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1561.46</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1819.27</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1590.0599999999999</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1494.23</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3109.3800000000001</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="4">
+      <c r="B33" s="12">
         <f>((SUM(B$2:B$32))/10)/(COUNTA(B$2:B$32))</f>
         <v>161.29069999999999</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="12">
         <f>((SUM(C$2:C$32))/10)/(COUNTA(C$2:C$32))</f>
         <v>233.09</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="G33" s="7"/>
+      <c r="D33" s="12">
+        <f>((SUM(D$2:D$32))/10)/(COUNTA(D$2:D$32))</f>
+        <v>233.10999999999999</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33"/>
+      <c r="G33" s="13"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="12">
         <f>B$33-70</f>
         <v>91.290699999999987</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="12">
         <f>C$33-70</f>
         <v>163.09</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="12">
+        <f>D$33-70</f>
+        <v>163.10999999999999</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="12">
         <f>B$34*55%</f>
         <v>50.209885</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="14">
         <f>C$34*55%</f>
         <v>89.699500000000015</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="14">
+        <f>D$34*55%</f>
+        <v>89.710499999999996</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="15">
         <v>89.700000000000003</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="15">
         <v>89.700000000000003</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="15">
+        <v>89.700000000000003</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="12">
         <f>B$36-B$35</f>
         <v>39.490115000000003</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="12">
         <f>C$36-C$35</f>
         <v>4.9999999998817657e-004</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="12">
+        <f>D$36-D$35</f>
+        <v>-1.0499999999993292e-002</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="A38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="16">
+        <v>2330.9000000000001</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A39"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00E9000C-004B-4C0A-9906-004300AB00D9}">
+            <xm:f>0.00</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFC00000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B37:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{000000C3-00FA-421E-A8F3-00EA006800E5}">
+            <xm:f>0.00</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="64"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B37:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{00A400A6-0025-4484-B7F1-00D100DC0070}">
+            <xm:f>0.01</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF00B050"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B37:D37</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" style="4" width="14.28125"/>
+    <col min="2" max="2" style="15" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1213.1400000000001</v>
+      </c>
+      <c r="C2" s="19">
+        <v>2330.9000000000001</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1890.01</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1514.04</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1368.0699999999999</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1320.8900000000001</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1716.6800000000001</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1762.1400000000001</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1329.72</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1327.5</v>
+      </c>
+      <c r="E10"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1511.5999999999999</v>
+      </c>
+      <c r="E11"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1622.5999999999999</v>
+      </c>
+      <c r="E12"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1344.4100000000001</v>
+      </c>
+      <c r="E13"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1372.51</v>
+      </c>
+      <c r="E14"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2081.75</v>
+      </c>
+      <c r="E15"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1308.6800000000001</v>
+      </c>
+      <c r="E16"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1561.46</v>
+      </c>
+      <c r="E17"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1819.27</v>
+      </c>
+      <c r="E18"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1590.0599999999999</v>
+      </c>
+      <c r="E19"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1494.23</v>
+      </c>
+      <c r="E20"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>3109.3800000000001</v>
+      </c>
+      <c r="E21"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="12">
+        <f>((SUM(B$2:B$32))/10)/(COUNTA(B$2:B$32))</f>
+        <v>161.29069999999999</v>
+      </c>
+      <c r="C33" s="12">
+        <f>((SUM(C$2:C$32))/10)/(COUNTA(C$2:C$32))</f>
+        <v>233.09</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="12">
+        <f>B$33-70</f>
+        <v>91.290699999999987</v>
+      </c>
+      <c r="C34" s="12">
+        <f>C$33-70</f>
+        <v>163.09</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="12">
+        <f>B$34*55%</f>
+        <v>50.209885</v>
+      </c>
+      <c r="C35" s="20">
+        <f>C$34*55%</f>
+        <v>89.699500000000015</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="12">
+        <v>89.700000000000003</v>
+      </c>
+      <c r="C36" s="12">
+        <v>89.700000000000003</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="12">
+        <f>B$36-B$35</f>
+        <v>39.490115000000003</v>
+      </c>
+      <c r="C37" s="12">
+        <f>C$36-C$35</f>
+        <v>4.9999999998817657e-004</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/strompriser_snitt.xlsx
+++ b/strompriser_snitt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Dag</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t xml:space="preserve">Reell pris:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forbruk p.d.d (hent fra app):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Å betale p.d.d (kun strøm):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energiledd pr kwh:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energiledd Elvia:</t>
+  </si>
+  <si>
+    <t>TOTALT:</t>
   </si>
   <si>
     <t>"Nullpris":</t>
@@ -65,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -81,12 +96,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -124,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,40 +150,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +737,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="15.00390625"/>
+    <col customWidth="1" min="1" max="1" width="30.00390625"/>
+    <col bestFit="1" min="2" max="2" width="9.28125"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -707,631 +757,560 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="4">
         <v>31</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="4">
         <v>30</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="4">
         <v>29</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" s="5"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="4">
         <v>28</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="4">
         <v>27</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="4">
         <v>26</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="4">
         <v>25</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="4">
         <v>24</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="4">
         <v>23</v>
       </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10" s="6"/>
-      <c r="K10"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="4">
         <v>22</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11" s="6"/>
-      <c r="K11"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="4">
         <v>21</v>
       </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12" s="6"/>
-      <c r="K12"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="4">
         <v>20</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>3109.3800000000001</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13" s="6"/>
-      <c r="K13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="4">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>1494.23</v>
       </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14" s="6"/>
-      <c r="K14"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="4">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>1590.0599999999999</v>
       </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15" s="6"/>
-      <c r="K15"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="4">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>1819.27</v>
       </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16" s="6"/>
-      <c r="K16"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>1561.46</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17" s="6"/>
-      <c r="K17"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>1308.6800000000001</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18" s="6"/>
-      <c r="K18"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>2081.75</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19" s="6"/>
-      <c r="K19"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="4">
         <v>13</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>1372.51</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20" s="6"/>
-      <c r="K20"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="4">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>1344.4100000000001</v>
       </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21" s="6"/>
-      <c r="K21"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="4">
         <v>11</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>1622.5999999999999</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="4">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>1511.5999999999999</v>
       </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="4">
         <v>9</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>1327.5</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="4">
         <v>8</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>1329.72</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="4">
         <v>7</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>1762.1400000000001</v>
       </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>1716.6800000000001</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>1320.8900000000001</v>
       </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="4">
         <v>4</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>1368.0699999999999</v>
       </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" s="4">
         <v>3</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>1514.04</v>
       </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>1890.01</v>
       </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="7">
+      <c r="A32" s="4">
         <v>1</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="5">
         <v>1213.1400000000001</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>2330.9000000000001</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="5">
         <v>2331.0999999999999</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="9">
         <f>((SUM(B$2:B$32))/10)/(COUNTA(B$2:B$32))</f>
         <v>161.29069999999999</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="9">
         <f>((SUM(C$2:C$32))/10)/(COUNTA(C$2:C$32))</f>
         <v>233.09</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="9">
         <f>((SUM(D$2:D$32))/10)/(COUNTA(D$2:D$32))</f>
         <v>233.10999999999999</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33"/>
-      <c r="G33" s="13"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
+      <c r="E33" s="10"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <f>B$33-70</f>
         <v>91.290699999999987</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <f>C$33-70</f>
         <v>163.09</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <f>D$33-70</f>
         <v>163.10999999999999</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="9">
         <f>B$34*55%</f>
         <v>50.209885</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="12">
         <f>C$34*55%</f>
         <v>89.699500000000015</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <f>D$34*55%</f>
         <v>89.710499999999996</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="9">
         <v>89.700000000000003</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="9">
         <v>89.700000000000003</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="9">
         <v>89.700000000000003</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <f>B$36-B$35</f>
         <v>39.490115000000003</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <f>C$36-C$35</f>
         <v>4.9999999998817657e-004</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="10">
         <f>D$36-D$35</f>
         <v>-1.0499999999993292e-002</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="14">
+        <v>3000</v>
+      </c>
+      <c r="C38" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D38" s="14">
+        <v>3000</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="10">
+        <f>(B$37*B$38)/100</f>
+        <v>1184.7034500000002</v>
+      </c>
+      <c r="C39" s="10">
+        <f>(C$37*C$38)/100</f>
+        <v>1.4999999999645297e-002</v>
+      </c>
+      <c r="D39" s="10">
+        <f>(D$37*D$38)/100</f>
+        <v>-0.31499999999979877</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="9">
+        <v>44.799999999999997</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="10">
+        <f>(B$40*B$38)/100</f>
+        <v>1344</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="17">
+        <f>B$39+B$41</f>
+        <v>2528.70345</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="20">
         <v>2330.9000000000001</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="17" t="s">
-        <v>11</v>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A39"/>
+    <hyperlink r:id="rId1" ref="A45"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -1341,7 +1320,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00E9000C-004B-4C0A-9906-004300AB00D9}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00860063-0007-4CA6-8CE5-006B000C007E}">
             <xm:f>0.00</xm:f>
             <x14:dxf>
               <font>
@@ -1352,18 +1331,16 @@
           <xm:sqref>B37:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{000000C3-00FA-421E-A8F3-00EA006800E5}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0074007D-0078-4D4A-B1EB-002A00F0006E}">
             <xm:f>0.00</xm:f>
             <x14:dxf>
-              <font>
-                <color indexed="64"/>
-              </font>
+              <font/>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>B37:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{00A400A6-0025-4484-B7F1-00D100DC0070}">
+          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{00D40038-00A9-43EA-8389-00BD0019006D}">
             <xm:f>0.01</xm:f>
             <x14:dxf>
               <font>
@@ -1388,369 +1365,348 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" style="4" width="14.28125"/>
-    <col min="2" max="2" style="15" width="9.140625"/>
+    <col bestFit="1" min="1" max="1" style="22" width="14.28125"/>
+    <col min="2" max="2" style="23" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="4">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="23">
         <v>1213.1400000000001</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="25">
         <v>2330.9000000000001</v>
       </c>
-      <c r="E2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="4">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="23">
         <v>1890.01</v>
       </c>
-      <c r="E3"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="4">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="23">
         <v>1514.04</v>
       </c>
-      <c r="E4"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="4">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="23">
         <v>1368.0699999999999</v>
       </c>
-      <c r="E5"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="4">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="23">
         <v>1320.8900000000001</v>
       </c>
-      <c r="E6"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="4">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="23">
         <v>1716.6800000000001</v>
       </c>
-      <c r="E7"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="4">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="23">
         <v>1762.1400000000001</v>
       </c>
-      <c r="E8"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="4">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="23">
         <v>1329.72</v>
       </c>
-      <c r="E9"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="4">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="23">
         <v>1327.5</v>
       </c>
-      <c r="E10"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="4">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="23">
         <v>1511.5999999999999</v>
       </c>
-      <c r="E11"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="4">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="23">
         <v>1622.5999999999999</v>
       </c>
-      <c r="E12"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="4">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="23">
         <v>1344.4100000000001</v>
       </c>
-      <c r="E13"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="4">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="23">
         <v>1372.51</v>
       </c>
-      <c r="E14"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="4">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="23">
         <v>2081.75</v>
       </c>
-      <c r="E15"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="4">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="23">
         <v>1308.6800000000001</v>
       </c>
-      <c r="E16"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="4">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="23">
         <v>1561.46</v>
       </c>
-      <c r="E17"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="4">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="23">
         <v>1819.27</v>
       </c>
-      <c r="E18"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="4">
+      <c r="A19" s="22">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="23">
         <v>1590.0599999999999</v>
       </c>
-      <c r="E19"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="4">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="23">
         <v>1494.23</v>
       </c>
-      <c r="E20"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="4">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="23">
         <v>3109.3800000000001</v>
       </c>
-      <c r="E21"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="4">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="E22"/>
+      <c r="B22" s="23"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="4">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="23"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="4">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="23"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="4">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="23"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="4">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="23"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="4">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="23"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="4">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="23"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="4">
+      <c r="A29" s="22">
         <v>28</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="23"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="4">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="23"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="4">
+      <c r="A31" s="22">
         <v>30</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="23"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="4">
+      <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="23"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="12">
+      <c r="A33" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="19">
         <f>((SUM(B$2:B$32))/10)/(COUNTA(B$2:B$32))</f>
         <v>161.29069999999999</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="19">
         <f>((SUM(C$2:C$32))/10)/(COUNTA(C$2:C$32))</f>
         <v>233.09</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="G33" s="13"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="12">
+      <c r="A34" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="19">
         <f>B$33-70</f>
         <v>91.290699999999987</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="19">
         <f>C$33-70</f>
         <v>163.09</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="19">
         <f>B$34*55%</f>
         <v>50.209885</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="26">
         <f>C$34*55%</f>
         <v>89.699500000000015</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="19">
         <v>89.700000000000003</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="19">
         <v>89.700000000000003</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="12">
+      <c r="A37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="19">
         <f>B$36-B$35</f>
         <v>39.490115000000003</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="19">
         <f>C$36-C$35</f>
         <v>4.9999999998817657e-004</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/strompriser_snitt.xlsx
+++ b/strompriser_snitt.xlsx
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -97,6 +97,20 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="12.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="14.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -180,11 +194,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -197,33 +224,46 @@
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
     <xf fontId="2" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="2" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="3" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,232 +1119,232 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="4">
+      <c r="A32" s="8">
         <v>1</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="9">
         <v>1213.1400000000001</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="10">
         <v>2330.9000000000001</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="9">
         <v>2331.0999999999999</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="12">
         <f>((SUM(B$2:B$32))/10)/(COUNTA(B$2:B$32))</f>
         <v>161.29069999999999</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="12">
         <f>((SUM(C$2:C$32))/10)/(COUNTA(C$2:C$32))</f>
         <v>233.09</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="12">
         <f>((SUM(D$2:D$32))/10)/(COUNTA(D$2:D$32))</f>
         <v>233.10999999999999</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="G33" s="11"/>
+      <c r="E33" s="13"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="15">
         <f>B$33-70</f>
         <v>91.290699999999987</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="15">
         <f>C$33-70</f>
         <v>163.09</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="15">
         <f>D$33-70</f>
         <v>163.10999999999999</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="15">
         <f>B$34*55%</f>
         <v>50.209885</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="17">
         <f>C$34*55%</f>
         <v>89.699500000000015</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="17">
         <f>D$34*55%</f>
         <v>89.710499999999996</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="15">
         <v>89.700000000000003</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="15">
         <v>89.700000000000003</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="15">
         <v>89.700000000000003</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="16">
         <f>B$36-B$35</f>
         <v>39.490115000000003</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="16">
         <f>C$36-C$35</f>
         <v>4.9999999998817657e-004</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="16">
         <f>D$36-D$35</f>
         <v>-1.0499999999993292e-002</v>
       </c>
-      <c r="E37" s="10"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="19">
         <v>3000</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="19">
         <v>3000</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="19">
         <v>3000</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="13" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" ht="16.5">
+      <c r="A39" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="22">
         <f>(B$37*B$38)/100</f>
         <v>1184.7034500000002</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="22">
         <f>(C$37*C$38)/100</f>
         <v>1.4999999999645297e-002</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="22">
         <f>(D$37*D$38)/100</f>
         <v>-0.31499999999979877</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="15">
         <v>44.799999999999997</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="13" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" ht="16.5">
+      <c r="A41" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="22">
         <f>(B$40*B$38)/100</f>
         <v>1344</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="16" t="s">
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" ht="18.75">
+      <c r="A42" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="24">
         <f>B$39+B$41</f>
         <v>2528.70345</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="27">
         <v>2330.9000000000001</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="28" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1320,7 +1360,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00860063-0007-4CA6-8CE5-006B000C007E}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{005300FE-00DE-413F-8767-00CA004D009E}">
             <xm:f>0.00</xm:f>
             <x14:dxf>
               <font>
@@ -1331,7 +1371,7 @@
           <xm:sqref>B37:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0074007D-0078-4D4A-B1EB-002A00F0006E}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{002E00CA-0014-444C-924A-00EA00650027}">
             <xm:f>0.00</xm:f>
             <x14:dxf>
               <font/>
@@ -1340,7 +1380,7 @@
           <xm:sqref>B37:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{00D40038-00A9-43EA-8389-00BD0019006D}">
+          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{009B00D6-002A-4FF4-A8E6-007E00E3005F}">
             <xm:f>0.01</xm:f>
             <x14:dxf>
               <font>
@@ -1365,348 +1405,348 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" style="22" width="14.28125"/>
-    <col min="2" max="2" style="23" width="9.140625"/>
+    <col bestFit="1" min="1" max="1" style="29" width="14.28125"/>
+    <col min="2" max="2" style="30" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="22">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="30">
         <v>1213.1400000000001</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="32">
         <v>2330.9000000000001</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="22">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="30">
         <v>1890.01</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="22">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="30">
         <v>1514.04</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="22">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="30">
         <v>1368.0699999999999</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="22">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="30">
         <v>1320.8900000000001</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="22">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="30">
         <v>1716.6800000000001</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="22">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="30">
         <v>1762.1400000000001</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="22">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="30">
         <v>1329.72</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="22">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="30">
         <v>1327.5</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="22">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="30">
         <v>1511.5999999999999</v>
       </c>
       <c r="J11" s="7"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="22">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="30">
         <v>1622.5999999999999</v>
       </c>
       <c r="J12" s="7"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="22">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="30">
         <v>1344.4100000000001</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="22">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="30">
         <v>1372.51</v>
       </c>
       <c r="J14" s="7"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="22">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="30">
         <v>2081.75</v>
       </c>
       <c r="J15" s="7"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="22">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="30">
         <v>1308.6800000000001</v>
       </c>
       <c r="J16" s="7"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="22">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="30">
         <v>1561.46</v>
       </c>
       <c r="J17" s="7"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="22">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="30">
         <v>1819.27</v>
       </c>
       <c r="J18" s="7"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="22">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="30">
         <v>1590.0599999999999</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="22">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="30">
         <v>1494.23</v>
       </c>
       <c r="J20" s="7"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="22">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="30">
         <v>3109.3800000000001</v>
       </c>
       <c r="J21" s="7"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="22">
+      <c r="A22" s="29">
         <v>21</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="30"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="22">
+      <c r="A23" s="29">
         <v>22</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="22">
+      <c r="A24" s="29">
         <v>23</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="30"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="22">
+      <c r="A25" s="29">
         <v>24</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="22">
+      <c r="A26" s="29">
         <v>25</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="22">
+      <c r="A27" s="29">
         <v>26</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="30"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="22">
+      <c r="A28" s="29">
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="30"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="22">
+      <c r="A29" s="29">
         <v>28</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="30"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="22">
+      <c r="A30" s="29">
         <v>29</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="30"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="22">
+      <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="30"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="22">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="30"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="26">
         <f>((SUM(B$2:B$32))/10)/(COUNTA(B$2:B$32))</f>
         <v>161.29069999999999</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="26">
         <f>((SUM(C$2:C$32))/10)/(COUNTA(C$2:C$32))</f>
         <v>233.09</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="G33" s="11"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="26">
         <f>B$33-70</f>
         <v>91.290699999999987</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="26">
         <f>C$33-70</f>
         <v>163.09</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="26">
         <f>B$34*55%</f>
         <v>50.209885</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="33">
         <f>C$34*55%</f>
         <v>89.699500000000015</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="26">
         <v>89.700000000000003</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="26">
         <v>89.700000000000003</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="26">
         <f>B$36-B$35</f>
         <v>39.490115000000003</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="26">
         <f>C$36-C$35</f>
         <v>4.9999999998817657e-004</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/strompriser_snitt.xlsx
+++ b/strompriser_snitt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Dag</t>
   </si>
@@ -43,19 +43,31 @@
     <t>Fastpris:</t>
   </si>
   <si>
-    <t xml:space="preserve">Reell pris:</t>
+    <t xml:space="preserve">Rabattert pris:</t>
   </si>
   <si>
     <t xml:space="preserve">Forbruk p.d.d (hent fra app):</t>
   </si>
   <si>
-    <t xml:space="preserve">Å betale p.d.d (kun strøm):</t>
+    <t xml:space="preserve">Fastledd GE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energiledd GE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum GE:</t>
   </si>
   <si>
     <t xml:space="preserve">Energiledd pr kwh:</t>
   </si>
   <si>
     <t xml:space="preserve">Energiledd Elvia:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fastledd Elvia:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum Elvia:</t>
   </si>
   <si>
     <t>TOTALT:</t>
@@ -133,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +158,14 @@
         <bgColor theme="2" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -207,11 +225,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -241,12 +272,17 @@
     <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="2" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="5" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1207,150 +1243,224 @@
       <c r="A37" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <f>B$36-B$35</f>
         <v>39.490115000000003</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <f>C$36-C$35</f>
         <v>4.9999999998817657e-004</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="15">
         <f>D$36-D$35</f>
         <v>-1.0499999999993292e-002</v>
       </c>
       <c r="E37" s="16"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="20">
+        <v>939</v>
+      </c>
+      <c r="C38" s="20">
         <v>3000</v>
       </c>
-      <c r="C38" s="19">
+      <c r="D38" s="20">
         <v>3000</v>
       </c>
-      <c r="D38" s="19">
-        <v>3000</v>
-      </c>
       <c r="E38" s="16"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39" ht="16.5">
-      <c r="A39" s="21" t="s">
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="22">
-        <f>(B$37*B$38)/100</f>
-        <v>1184.7034500000002</v>
-      </c>
-      <c r="C39" s="22">
-        <f>(C$37*C$38)/100</f>
-        <v>1.4999999999645297e-002</v>
-      </c>
-      <c r="D39" s="22">
-        <f>(D$37*D$38)/100</f>
-        <v>-0.31499999999979877</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
+      <c r="B39" s="20">
+        <v>29</v>
+      </c>
+      <c r="C39" s="20">
+        <v>29</v>
+      </c>
+      <c r="D39" s="20">
+        <v>29</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="20">
+        <f>(B$37*B$38)/100</f>
+        <v>370.81217985000001</v>
+      </c>
+      <c r="C40" s="22">
+        <f>(C$37*C$38)/100</f>
+        <v>1.4999999999645297e-002</v>
+      </c>
+      <c r="D40" s="22">
+        <f>(D$37*D$38)/100</f>
+        <v>-0.31499999999979877</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" ht="16.5">
+      <c r="A41" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="24">
+        <f>SUM(B$39:B$40)</f>
+        <v>399.81217985000001</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="15">
         <v>44.799999999999997</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="41" ht="16.5">
-      <c r="A41" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="22">
-        <f>(B$40*B$38)/100</f>
-        <v>1344</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-    </row>
-    <row r="42" ht="18.75">
-      <c r="A42" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="24">
-        <f>B$39+B$41</f>
-        <v>2528.70345</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" s="25" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" ht="16.5">
+      <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B43" s="4">
+        <f>(B$42*B$38)/100</f>
+        <v>420.67199999999997</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" ht="16.5">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="4">
+        <v>115</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" ht="16.5">
+      <c r="A45" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="24">
+        <f>SUM(B$42:B$43)</f>
+        <v>465.47199999999998</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" ht="18.75">
+      <c r="A46" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="27">
+        <f>SUM(B$41,B$45)</f>
+        <v>865.28417984999999</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="30">
         <v>2330.9000000000001</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="A45" s="28" t="s">
-        <v>16</v>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="31" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A45"/>
+    <hyperlink r:id="rId1" ref="A49"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -1360,7 +1470,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{005300FE-00DE-413F-8767-00CA004D009E}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{004900A8-0000-4699-8D9E-00CB009F0095}">
             <xm:f>0.00</xm:f>
             <x14:dxf>
               <font>
@@ -1371,7 +1481,7 @@
           <xm:sqref>B37:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{002E00CA-0014-444C-924A-00EA00650027}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{008000E5-00A6-4FA3-8ECA-009D008E000A}">
             <xm:f>0.00</xm:f>
             <x14:dxf>
               <font/>
@@ -1380,7 +1490,7 @@
           <xm:sqref>B37:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{009B00D6-002A-4FF4-A8E6-007E00E3005F}">
+          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{00760034-009E-4B59-82B6-006C00BF0019}">
             <xm:f>0.01</xm:f>
             <x14:dxf>
               <font>
@@ -1405,348 +1515,348 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" style="29" width="14.28125"/>
-    <col min="2" max="2" style="30" width="9.140625"/>
+    <col bestFit="1" min="1" max="1" style="32" width="14.28125"/>
+    <col min="2" max="2" style="33" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="29">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="33">
         <v>1213.1400000000001</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="35">
         <v>2330.9000000000001</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="29">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="33">
         <v>1890.01</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="29">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="33">
         <v>1514.04</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="29">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="33">
         <v>1368.0699999999999</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="29">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="33">
         <v>1320.8900000000001</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="29">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="33">
         <v>1716.6800000000001</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="29">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="33">
         <v>1762.1400000000001</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="29">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="33">
         <v>1329.72</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="29">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="33">
         <v>1327.5</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="29">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="33">
         <v>1511.5999999999999</v>
       </c>
       <c r="J11" s="7"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="29">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="33">
         <v>1622.5999999999999</v>
       </c>
       <c r="J12" s="7"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="29">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="33">
         <v>1344.4100000000001</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="29">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="33">
         <v>1372.51</v>
       </c>
       <c r="J14" s="7"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="29">
+      <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="33">
         <v>2081.75</v>
       </c>
       <c r="J15" s="7"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="29">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="33">
         <v>1308.6800000000001</v>
       </c>
       <c r="J16" s="7"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="29">
+      <c r="A17" s="32">
         <v>16</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="33">
         <v>1561.46</v>
       </c>
       <c r="J17" s="7"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="29">
+      <c r="A18" s="32">
         <v>17</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="33">
         <v>1819.27</v>
       </c>
       <c r="J18" s="7"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="29">
+      <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="33">
         <v>1590.0599999999999</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="29">
+      <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="33">
         <v>1494.23</v>
       </c>
       <c r="J20" s="7"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="29">
+      <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="33">
         <v>3109.3800000000001</v>
       </c>
       <c r="J21" s="7"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="29">
+      <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="33"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="29">
+      <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="33"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="29">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="33"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="29">
+      <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="33"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="29">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="33"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="29">
+      <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="33"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="29">
+      <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="33"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="29">
+      <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="33"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="29">
+      <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="33"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="29">
+      <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="33"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="29">
+      <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="33"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="26">
+      <c r="A33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="29">
         <f>((SUM(B$2:B$32))/10)/(COUNTA(B$2:B$32))</f>
         <v>161.29069999999999</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="29">
         <f>((SUM(C$2:C$32))/10)/(COUNTA(C$2:C$32))</f>
         <v>233.09</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
       <c r="G33" s="14"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="26">
+      <c r="A34" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="29">
         <f>B$33-70</f>
         <v>91.290699999999987</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="29">
         <f>C$33-70</f>
         <v>163.09</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="29">
         <f>B$34*55%</f>
         <v>50.209885</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="36">
         <f>C$34*55%</f>
         <v>89.699500000000015</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="29">
         <v>89.700000000000003</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="29">
         <v>89.700000000000003</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="26">
+      <c r="A37" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="29">
         <f>B$36-B$35</f>
         <v>39.490115000000003</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="29">
         <f>C$36-C$35</f>
         <v>4.9999999998817657e-004</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/strompriser_snitt.xlsx
+++ b/strompriser_snitt.xlsx
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -277,7 +277,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1262,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="20">
-        <v>939</v>
+        <v>1478</v>
       </c>
       <c r="C38" s="20">
         <v>3000</v>
@@ -1305,13 +1304,13 @@
       </c>
       <c r="B40" s="20">
         <f>(B$37*B$38)/100</f>
-        <v>370.81217985000001</v>
-      </c>
-      <c r="C40" s="22">
+        <v>583.6638997</v>
+      </c>
+      <c r="C40" s="20">
         <f>(C$37*C$38)/100</f>
         <v>1.4999999999645297e-002</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="20">
         <f>(D$37*D$38)/100</f>
         <v>-0.31499999999979877</v>
       </c>
@@ -1324,16 +1323,16 @@
       <c r="K40" s="21"/>
     </row>
     <row r="41" ht="16.5">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="23">
         <f>SUM(B$39:B$40)</f>
-        <v>399.81217985000001</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+        <v>612.6638997</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -1364,11 +1363,11 @@
       </c>
       <c r="B43" s="4">
         <f>(B$42*B$38)/100</f>
-        <v>420.67199999999997</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+        <v>662.14399999999989</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -1383,9 +1382,9 @@
       <c r="B44" s="4">
         <v>115</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -1394,16 +1393,16 @@
       <c r="K44" s="21"/>
     </row>
     <row r="45" ht="16.5">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="23">
         <f>SUM(B$42:B$43)</f>
-        <v>465.47199999999998</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
+        <v>706.94399999999985</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -1412,16 +1411,16 @@
       <c r="K45" s="21"/>
     </row>
     <row r="46" ht="18.75">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="26">
         <f>SUM(B$41,B$45)</f>
-        <v>865.28417984999999</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
+        <v>1319.6078997</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -1430,11 +1429,11 @@
       <c r="K46" s="21"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -1443,18 +1442,18 @@
       <c r="K47" s="21"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="29">
         <v>2330.9000000000001</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1470,7 +1469,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{004900A8-0000-4699-8D9E-00CB009F0095}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00FF005A-00E1-4B0D-9C24-009100790029}">
             <xm:f>0.00</xm:f>
             <x14:dxf>
               <font>
@@ -1481,7 +1480,7 @@
           <xm:sqref>B37:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{008000E5-00A6-4FA3-8ECA-009D008E000A}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00E0001A-001E-484F-AEAA-003F003D0013}">
             <xm:f>0.00</xm:f>
             <x14:dxf>
               <font/>
@@ -1490,7 +1489,7 @@
           <xm:sqref>B37:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{00760034-009E-4B59-82B6-006C00BF0019}">
+          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{003600B4-002D-49ED-A4F7-004000EC0090}">
             <xm:f>0.01</xm:f>
             <x14:dxf>
               <font>
@@ -1515,348 +1514,348 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" style="32" width="14.28125"/>
-    <col min="2" max="2" style="33" width="9.140625"/>
+    <col bestFit="1" min="1" max="1" style="31" width="14.28125"/>
+    <col min="2" max="2" style="32" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>1213.1400000000001</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="34">
         <v>2330.9000000000001</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>1890.01</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>1514.04</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1368.0699999999999</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1320.8900000000001</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>1716.6800000000001</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1762.1400000000001</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>1329.72</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>1327.5</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>1511.5999999999999</v>
       </c>
       <c r="J11" s="7"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>1622.5999999999999</v>
       </c>
       <c r="J12" s="7"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>1344.4100000000001</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>1372.51</v>
       </c>
       <c r="J14" s="7"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>2081.75</v>
       </c>
       <c r="J15" s="7"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>1308.6800000000001</v>
       </c>
       <c r="J16" s="7"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>1561.46</v>
       </c>
       <c r="J17" s="7"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>1819.27</v>
       </c>
       <c r="J18" s="7"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>1590.0599999999999</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>1494.23</v>
       </c>
       <c r="J20" s="7"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <v>3109.3800000000001</v>
       </c>
       <c r="J21" s="7"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="32"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="32">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="32"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="32"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="32"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="33"/>
+      <c r="B26" s="32"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="32">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="32"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="32">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="32"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="32">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="33"/>
+      <c r="B30" s="32"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="32">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="32"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="32">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="32"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <f>((SUM(B$2:B$32))/10)/(COUNTA(B$2:B$32))</f>
         <v>161.29069999999999</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <f>((SUM(C$2:C$32))/10)/(COUNTA(C$2:C$32))</f>
         <v>233.09</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="G33" s="14"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="28">
         <f>B$33-70</f>
         <v>91.290699999999987</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="28">
         <f>C$33-70</f>
         <v>163.09</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="28">
         <f>B$34*55%</f>
         <v>50.209885</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="35">
         <f>C$34*55%</f>
         <v>89.699500000000015</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="28">
         <v>89.700000000000003</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="28">
         <v>89.700000000000003</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="28">
         <f>B$36-B$35</f>
         <v>39.490115000000003</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="28">
         <f>C$36-C$35</f>
         <v>4.9999999998817657e-004</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
